--- a/home/static/Exceltemplates/WeatherDataTemplate.xlsx
+++ b/home/static/Exceltemplates/WeatherDataTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jobben\UBA Patrikum\uba-dashboard\home\static\Exceltemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01903694-5C97-45DE-B274-978488EBAD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA2E257-F9EA-4329-AFF5-64618FD34246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
